--- a/published-data/reports-echeances-regional-naf-latest.xlsx
+++ b/published-data/reports-echeances-regional-naf-latest.xlsx
@@ -37,7 +37,7 @@
     <t>libelle_section</t>
   </si>
   <si>
-    <t>Reports d échéances fiscales</t>
+    <t>Reports d'échéances fiscales</t>
   </si>
   <si>
     <t>84</t>

--- a/published-data/reports-echeances-regional-naf-latest.xlsx
+++ b/published-data/reports-echeances-regional-naf-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -446,7 +514,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -488,7 +556,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -500,12 +568,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>879.00</t>
+          <t>884.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>61514088.00</t>
+          <t>61278653.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -530,7 +598,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -572,7 +640,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -584,12 +652,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2652062.00</t>
+          <t>2474841.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -614,7 +682,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -626,12 +694,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>868.00</t>
+          <t>882.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22655814.00</t>
+          <t>23283389.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -656,7 +724,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -668,12 +736,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1904.00</t>
+          <t>1905.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>79416962.00</t>
+          <t>78578558.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -698,7 +766,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -710,12 +778,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>206.00</t>
+          <t>209.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9244950.00</t>
+          <t>9242214.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -740,7 +808,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -752,12 +820,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>927.00</t>
+          <t>931.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11334417.00</t>
+          <t>11668689.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -782,7 +850,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -799,7 +867,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11041565.00</t>
+          <t>11020169.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -824,7 +892,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -836,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>405.00</t>
+          <t>409.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18902207.00</t>
+          <t>18762085.00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -866,7 +934,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -878,12 +946,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>694.00</t>
+          <t>716.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10915235.00</t>
+          <t>10944230.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -908,7 +976,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -920,12 +988,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>988.00</t>
+          <t>987.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>36454296.00</t>
+          <t>36277651.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -950,7 +1018,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -962,12 +1030,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>361.00</t>
+          <t>370.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11996069.00</t>
+          <t>12094886.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -992,7 +1060,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1072,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>117.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1666210.00</t>
+          <t>1690487.00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1034,7 +1102,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1119,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10107591.00</t>
+          <t>10173246.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1076,7 +1144,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1088,12 +1156,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>141.00</t>
+          <t>147.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11047046.00</t>
+          <t>11120041.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1118,7 +1186,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1198,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>192.00</t>
+          <t>193.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2464381.00</t>
+          <t>2501824.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1160,7 +1228,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1270,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1282,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>454310.00</t>
+          <t>485451.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1244,7 +1312,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1324,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>267.00</t>
+          <t>275.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>24331545.00</t>
+          <t>24574378.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1286,7 +1354,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1366,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1328,7 +1396,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1408,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>173.00</t>
+          <t>179.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2343114.00</t>
+          <t>2375515.00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1370,7 +1438,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1382,12 +1450,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>518.00</t>
+          <t>542.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16304620.00</t>
+          <t>16534218.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1412,7 +1480,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1497,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2065290.00</t>
+          <t>2057083.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1454,7 +1522,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1466,12 +1534,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>286.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1533451.00</t>
+          <t>1784527.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1496,7 +1564,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1576,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>929885.00</t>
+          <t>930143.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1538,7 +1606,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1618,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>66.00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1580,7 +1648,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1660,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>177.00</t>
+          <t>195.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2060631.00</t>
+          <t>2050781.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1622,7 +1690,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1702,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>194.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3387246.00</t>
+          <t>3425321.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1664,7 +1732,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1749,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1498938.00</t>
+          <t>1477437.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1706,7 +1774,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1718,12 +1786,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>42227.00</t>
+          <t>67044.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1748,7 +1816,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1858,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1870,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4535346.00</t>
+          <t>4533869.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1832,7 +1900,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1912,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>267578.00</t>
+          <t>262142.00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1874,7 +1942,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1954,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>545813.00</t>
+          <t>542239.00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1916,7 +1984,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1958,7 +2026,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -1970,12 +2038,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>301.00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20087374.00</t>
+          <t>20440211.00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2000,7 +2068,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2110,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2054,12 +2122,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>351.00</t>
+          <t>352.00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13605962.00</t>
+          <t>13575214.00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2084,7 +2152,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2164,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>730.00</t>
+          <t>735.00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16954834.00</t>
+          <t>17026888.00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2126,7 +2194,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2211,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3847001.00</t>
+          <t>3866650.00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2168,7 +2236,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2248,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>576.00</t>
+          <t>583.00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7780969.00</t>
+          <t>8139198.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2210,7 +2278,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2222,12 +2290,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>59.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3337936.00</t>
+          <t>3306731.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2252,7 +2320,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2264,12 +2332,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>185.00</t>
+          <t>186.00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7125476.00</t>
+          <t>7131233.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2294,7 +2362,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2379,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3725498.00</t>
+          <t>3728820.00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2336,7 +2404,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2348,12 +2416,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>298.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5815572.00</t>
+          <t>5829685.00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2378,7 +2446,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2390,12 +2458,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>106.00</t>
+          <t>107.00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2660328.00</t>
+          <t>2681658.00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2420,7 +2488,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2432,12 +2500,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>41.00</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>496193.00</t>
+          <t>513135.00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2462,7 +2530,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2542,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>108.00</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5810722.00</t>
+          <t>6161355.00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2504,7 +2572,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2516,12 +2584,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1009376.00</t>
+          <t>975797.00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2546,7 +2614,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2558,12 +2626,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>77.00</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>219311.00</t>
+          <t>222849.00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2588,7 +2656,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2668,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>450497.00</t>
+          <t>467134.00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2630,7 +2698,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2740,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2752,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>218.00</t>
+          <t>219.00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14490087.00</t>
+          <t>9882719.00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2714,7 +2782,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2824,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2768,12 +2836,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>190.00</t>
+          <t>194.00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3507705.00</t>
+          <t>3591082.00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2798,7 +2866,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2810,12 +2878,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>460.00</t>
+          <t>464.00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>17138970.00</t>
+          <t>13002791.00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2840,7 +2908,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2852,12 +2920,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>81.00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2005487.00</t>
+          <t>1751794.00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2882,7 +2950,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2894,12 +2962,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>248.00</t>
+          <t>253.00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1754105.00</t>
+          <t>1772820.00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2924,7 +2992,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3004,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>836972.00</t>
+          <t>914897.00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2966,7 +3034,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -2978,12 +3046,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1714359.00</t>
+          <t>1716666.00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3008,7 +3076,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3088,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>173.00</t>
+          <t>175.00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1267154.00</t>
+          <t>1267401.00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3050,7 +3118,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3062,12 +3130,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>154.00</t>
+          <t>157.00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2790734.00</t>
+          <t>2820075.00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3092,7 +3160,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3177,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1072378.00</t>
+          <t>1041224.00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3134,7 +3202,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3146,12 +3214,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>100407.00</t>
+          <t>156121.00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3176,7 +3244,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3188,12 +3256,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>66.00</t>
+          <t>67.00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5139814.00</t>
+          <t>5142730.00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3218,7 +3286,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3303,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1043103.00</t>
+          <t>1209681.00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3260,7 +3328,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3345,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>188875.00</t>
+          <t>195752.00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3302,7 +3370,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3412,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3454,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3471,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1004924.00</t>
+          <t>1005979.00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3428,7 +3496,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3538,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3550,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1982878.00</t>
+          <t>2245104.00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3512,7 +3580,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3524,12 +3592,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>161.00</t>
+          <t>163.00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2350966.00</t>
+          <t>2366295.00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3554,7 +3622,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3664,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3608,12 +3676,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>112.00</t>
+          <t>114.00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1389917.00</t>
+          <t>1393901.00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3638,7 +3706,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3748,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3790,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3832,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3874,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3916,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3958,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3932,7 +4000,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -3974,7 +4042,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4084,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4126,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4168,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4185,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>45907068.00</t>
+          <t>45860046.00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4142,7 +4210,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4252,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4294,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4306,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>516.00</t>
+          <t>521.00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9891150.00</t>
+          <t>9898040.00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4268,7 +4336,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4280,12 +4348,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1100.00</t>
+          <t>1106.00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>44350548.00</t>
+          <t>44388097.00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4310,7 +4378,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4322,12 +4390,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>126.00</t>
+          <t>127.00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5013232.00</t>
+          <t>5013519.00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4352,7 +4420,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4364,12 +4432,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>562.00</t>
+          <t>570.00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6670063.00</t>
+          <t>6913261.00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4394,7 +4462,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4504,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4448,12 +4516,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>217.00</t>
+          <t>218.00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6184012.00</t>
+          <t>6184969.00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4478,7 +4546,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4490,12 +4558,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>432.00</t>
+          <t>441.00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5344786.00</t>
+          <t>5604282.00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4520,7 +4588,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4532,12 +4600,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>387.00</t>
+          <t>392.00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>6649405.00</t>
+          <t>6748165.00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4562,7 +4630,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4574,12 +4642,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>174.00</t>
+          <t>177.00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3350204.00</t>
+          <t>3485248.00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4604,7 +4672,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4616,12 +4684,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>949350.00</t>
+          <t>955386.00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4646,7 +4714,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4658,12 +4726,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>221.00</t>
+          <t>222.00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6547839.00</t>
+          <t>6551814.00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4688,7 +4756,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4700,12 +4768,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3903434.00</t>
+          <t>3876386.00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4730,7 +4798,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4772,7 +4840,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4857,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>914359.00</t>
+          <t>838211.00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4814,7 +4882,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4826,12 +4894,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>117479.00</t>
+          <t>149069.00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4856,7 +4924,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4966,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4983,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1697407.00</t>
+          <t>1780239.00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4940,7 +5008,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -4982,7 +5050,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5092,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5104,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>6618.00</t>
+          <t>10056.00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5066,7 +5134,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5176,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5218,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5235,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>79578.00</t>
+          <t>116244.00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5192,7 +5260,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5302,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5246,12 +5314,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2649571.00</t>
+          <t>2779587.00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5276,7 +5344,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5386,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5330,12 +5398,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>53.00</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1301969.00</t>
+          <t>1567539.00</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5360,7 +5428,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5470,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5512,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5486,7 +5554,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5498,12 +5566,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>28265.00</t>
+          <t>34490.00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5528,7 +5596,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5638,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5582,12 +5650,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>57241.00</t>
+          <t>92041.00</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5612,7 +5680,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5722,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5666,12 +5734,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>127938.00</t>
+          <t>146616.00</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5696,7 +5764,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5806,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5750,12 +5818,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>434.00</t>
+          <t>425.00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>61220155.00</t>
+          <t>62732958.00</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5780,7 +5848,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5890,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5932,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5876,12 +5944,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>453.00</t>
+          <t>458.00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>34174376.00</t>
+          <t>34620306.00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5906,7 +5974,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5918,12 +5986,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1109.00</t>
+          <t>1118.00</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>109300772.00</t>
+          <t>121566337.00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5948,7 +6016,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -5960,12 +6028,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>163.00</t>
+          <t>164.00</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6033508.00</t>
+          <t>7045125.00</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5990,7 +6058,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6002,12 +6070,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>601.00</t>
+          <t>600.00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>5312787.00</t>
+          <t>5524476.00</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6032,7 +6100,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6044,12 +6112,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>117.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>5817743.00</t>
+          <t>5861917.00</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6074,7 +6142,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6086,12 +6154,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>212.00</t>
+          <t>213.00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3895795.00</t>
+          <t>3930919.00</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6116,7 +6184,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6201,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4800670.00</t>
+          <t>4818796.00</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6158,7 +6226,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6170,12 +6238,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>437.00</t>
+          <t>440.00</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>10531940.00</t>
+          <t>10820915.00</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6200,7 +6268,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6212,12 +6280,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>191.00</t>
+          <t>190.00</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>9384870.00</t>
+          <t>9045509.00</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6242,7 +6310,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6352,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6369,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4786756.00</t>
+          <t>4936236.00</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6326,7 +6394,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6338,12 +6406,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2963586.00</t>
+          <t>2965841.00</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6368,7 +6436,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6380,12 +6448,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>185.00</t>
+          <t>187.00</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>993962.00</t>
+          <t>1001988.00</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6410,7 +6478,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6422,12 +6490,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>461424.00</t>
+          <t>458808.00</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -6452,7 +6520,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6464,12 +6532,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>480.00</t>
+          <t>491.00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>102801132.00</t>
+          <t>103081723.00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6494,7 +6562,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6579,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5262913.00</t>
+          <t>5284607.00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6536,7 +6604,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6548,12 +6616,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>396061.00</t>
+          <t>396986.00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6578,7 +6646,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6590,12 +6658,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>787.00</t>
+          <t>807.00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>29060080.00</t>
+          <t>31141289.00</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6620,7 +6688,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6632,12 +6700,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1884.00</t>
+          <t>1901.00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>176666745.00</t>
+          <t>178204901.00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6662,7 +6730,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6742,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>348.00</t>
+          <t>361.00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>49087314.00</t>
+          <t>49497462.00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6704,7 +6772,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6784,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1043.00</t>
+          <t>1081.00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>25992459.00</t>
+          <t>27050728.00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6746,7 +6814,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6758,12 +6826,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>684.00</t>
+          <t>701.00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>121643344.00</t>
+          <t>127256694.00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6788,7 +6856,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6800,12 +6868,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>577.00</t>
+          <t>591.00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>63403386.00</t>
+          <t>64818526.00</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6830,7 +6898,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6842,12 +6910,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>756.00</t>
+          <t>767.00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>58707753.00</t>
+          <t>60025177.00</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6872,7 +6940,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6884,12 +6952,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1884.00</t>
+          <t>1914.00</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>109903336.00</t>
+          <t>116031508.00</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6914,7 +6982,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6926,12 +6994,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>546.00</t>
+          <t>559.00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>42228603.00</t>
+          <t>42687804.00</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6956,7 +7024,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -6968,12 +7036,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>191.00</t>
+          <t>192.00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12352274.00</t>
+          <t>12371495.00</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6998,7 +7066,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7010,12 +7078,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>522.00</t>
+          <t>519.00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>14047459.00</t>
+          <t>13958312.00</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7040,7 +7108,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7052,12 +7120,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>126.00</t>
+          <t>128.00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>4914969.00</t>
+          <t>4916049.00</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7082,7 +7150,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7094,12 +7162,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>285.00</t>
+          <t>291.00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>6155541.00</t>
+          <t>6203068.00</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7124,7 +7192,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7136,12 +7204,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>106.00</t>
+          <t>111.00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>6110720.00</t>
+          <t>5888354.00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7166,7 +7234,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7178,12 +7246,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>67.00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2859006.00</t>
+          <t>2866755.00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7208,7 +7276,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7220,12 +7288,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>53.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1182151.00</t>
+          <t>1209105.00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7250,7 +7318,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7262,12 +7330,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>206.00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>6096669.00</t>
+          <t>7074850.00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7292,7 +7360,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7402,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7346,12 +7414,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>670822.00</t>
+          <t>675899.00</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7376,7 +7444,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7418,7 +7486,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7460,7 +7528,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7502,7 +7570,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7514,12 +7582,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1771851.00</t>
+          <t>1786626.00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7544,7 +7612,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7556,12 +7624,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>294713.00</t>
+          <t>401394.00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7586,7 +7654,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7628,7 +7696,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7640,12 +7708,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1010477.00</t>
+          <t>1123089.00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7670,7 +7738,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7780,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7754,7 +7822,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7864,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7906,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7850,12 +7918,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>195150.00</t>
+          <t>207255.00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7880,7 +7948,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7965,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3219410.00</t>
+          <t>3220941.00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7922,7 +7990,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -7964,7 +8032,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8074,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8048,7 +8116,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8158,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8132,7 +8200,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8174,7 +8242,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8186,12 +8254,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>356791.00</t>
+          <t>358224.00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -8216,7 +8284,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8258,7 +8326,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8300,7 +8368,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8342,7 +8410,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8384,7 +8452,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8494,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8536,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8578,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8522,12 +8590,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>88566.00</t>
+          <t>228708.00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -8552,7 +8620,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8564,12 +8632,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>245.00</t>
+          <t>286.00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>13336229.00</t>
+          <t>13394766.00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8594,7 +8662,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8674,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8636,7 +8704,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8648,12 +8716,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>274.00</t>
+          <t>362.00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6308063.00</t>
+          <t>6311560.00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8678,7 +8746,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8690,12 +8758,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>629.00</t>
+          <t>723.00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>15436949.00</t>
+          <t>15440136.00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8720,7 +8788,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8732,12 +8800,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>107.00</t>
+          <t>127.00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>3450073.00</t>
+          <t>3834742.00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8762,7 +8830,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8774,12 +8842,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>363.00</t>
+          <t>403.00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>3283505.00</t>
+          <t>3326752.00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8804,7 +8872,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8884,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8846,7 +8914,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8858,12 +8926,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>106.00</t>
+          <t>128.00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2017612.00</t>
+          <t>2432958.00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8888,7 +8956,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8900,12 +8968,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>214.00</t>
+          <t>316.00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2207993.00</t>
+          <t>2436712.00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8930,7 +8998,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8942,12 +9010,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>259.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>3950896.00</t>
+          <t>3970112.00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -8972,7 +9040,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -8984,7 +9052,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>113.00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9014,7 +9082,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9026,12 +9094,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>399028.00</t>
+          <t>420042.00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9056,7 +9124,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9068,12 +9136,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>118.00</t>
+          <t>131.00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2107018.00</t>
+          <t>2124739.00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -9098,7 +9166,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9110,7 +9178,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9140,7 +9208,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9152,12 +9220,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>206618.00</t>
+          <t>208273.00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9182,7 +9250,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9194,12 +9262,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>507064.00</t>
+          <t>366922.00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -9224,7 +9292,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9236,12 +9304,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>118.00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>5931811.00</t>
+          <t>5923276.00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -9266,7 +9334,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9376,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9320,12 +9388,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>601.00</t>
+          <t>582.00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>40602531.00</t>
+          <t>39234466.00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9350,7 +9418,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9392,7 +9460,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9404,12 +9472,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>209375.00</t>
+          <t>288821.00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -9434,7 +9502,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9446,12 +9514,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>640.00</t>
+          <t>620.00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>20044907.00</t>
+          <t>19316444.00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -9476,7 +9544,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9488,12 +9556,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>1520.00</t>
+          <t>1478.00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>41587300.00</t>
+          <t>42165743.00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -9518,7 +9586,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9530,12 +9598,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>164.00</t>
+          <t>168.00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>6130225.00</t>
+          <t>6842703.00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -9560,7 +9628,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9572,12 +9640,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>938.00</t>
+          <t>897.00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>8808048.00</t>
+          <t>8612628.00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -9602,7 +9670,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9614,12 +9682,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>86.00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>5596999.00</t>
+          <t>5767521.00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -9644,7 +9712,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9656,12 +9724,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>287.00</t>
+          <t>280.00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>7028833.00</t>
+          <t>7037639.00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -9686,7 +9754,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9698,12 +9766,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>571.00</t>
+          <t>553.00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>6194515.00</t>
+          <t>6126041.00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -9728,7 +9796,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9740,12 +9808,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>550.00</t>
+          <t>540.00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>8242790.00</t>
+          <t>8291530.00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9770,7 +9838,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9782,12 +9850,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>272.00</t>
+          <t>263.00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>5497163.00</t>
+          <t>5646223.00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -9812,7 +9880,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9824,12 +9892,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>866964.00</t>
+          <t>872131.00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -9854,7 +9922,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9866,12 +9934,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>223.00</t>
+          <t>207.00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>12096434.00</t>
+          <t>11616769.00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9896,7 +9964,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9908,12 +9976,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>86.00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1797817.00</t>
+          <t>1700002.00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9938,7 +10006,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9950,12 +10018,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>201.00</t>
+          <t>197.00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>812827.00</t>
+          <t>818427.00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -9980,7 +10048,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -9992,12 +10060,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>54.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3695092.00</t>
+          <t>3626485.00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -10022,7 +10090,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10034,12 +10102,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>984281.00</t>
+          <t>1037809.00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -10064,7 +10132,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10106,7 +10174,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10118,12 +10186,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>387.00</t>
+          <t>392.00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>22968361.00</t>
+          <t>23127522.00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10148,7 +10216,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10160,12 +10228,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>776033.00</t>
+          <t>796304.00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -10190,7 +10258,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10202,12 +10270,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>538.00</t>
+          <t>540.00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>21108987.00</t>
+          <t>21383696.00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -10232,7 +10300,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10244,12 +10312,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>1258.00</t>
+          <t>1272.00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>36101506.00</t>
+          <t>36395566.00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -10274,7 +10342,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10286,12 +10354,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>163.00</t>
+          <t>165.00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>6599370.00</t>
+          <t>6829862.00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -10316,7 +10384,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10328,12 +10396,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>764.00</t>
+          <t>781.00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>8105041.00</t>
+          <t>8264399.00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10358,7 +10426,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10370,12 +10438,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>107.00</t>
+          <t>110.00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2522918.00</t>
+          <t>2624972.00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -10400,7 +10468,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10412,12 +10480,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>211.00</t>
+          <t>214.00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>14777876.00</t>
+          <t>14864638.00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -10442,7 +10510,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10454,12 +10522,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>488.00</t>
+          <t>495.00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>9357129.00</t>
+          <t>9374676.00</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -10484,7 +10552,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10496,12 +10564,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>436.00</t>
+          <t>439.00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>10000102.00</t>
+          <t>10117050.00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -10526,7 +10594,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10538,12 +10606,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>226.00</t>
+          <t>228.00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>6820852.00</t>
+          <t>7005729.00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -10568,7 +10636,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10580,12 +10648,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>310031.00</t>
+          <t>311324.00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -10610,7 +10678,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10622,12 +10690,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>179.00</t>
+          <t>181.00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>6339337.00</t>
+          <t>6378974.00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -10652,7 +10720,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10664,12 +10732,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>98.00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>3651921.00</t>
+          <t>3627151.00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -10694,7 +10762,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10706,12 +10774,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>230.00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1279389.00</t>
+          <t>1309143.00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -10736,7 +10804,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10748,12 +10816,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1064767.00</t>
+          <t>1042603.00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -10778,7 +10846,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10820,7 +10888,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10862,7 +10930,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10874,12 +10942,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>465.00</t>
+          <t>470.00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>35624701.00</t>
+          <t>36685014.00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -10904,7 +10972,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10946,7 +11014,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -10988,7 +11056,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11000,12 +11068,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>425.00</t>
+          <t>431.00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>7825606.00</t>
+          <t>8102962.00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11030,7 +11098,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11042,12 +11110,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>889.00</t>
+          <t>894.00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>28996038.00</t>
+          <t>29299787.00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -11072,7 +11140,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11084,12 +11152,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>127.00</t>
+          <t>129.00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2896933.00</t>
+          <t>3355452.00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -11114,7 +11182,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11126,12 +11194,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>538.00</t>
+          <t>548.00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>5329801.00</t>
+          <t>5384043.00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -11156,7 +11224,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11168,12 +11236,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>83.00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>3433233.00</t>
+          <t>3451351.00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -11198,7 +11266,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11210,12 +11278,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>220.00</t>
+          <t>224.00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>7150997.00</t>
+          <t>7168906.00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -11240,7 +11308,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11252,12 +11320,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>345.00</t>
+          <t>348.00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>3915676.00</t>
+          <t>4006003.00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11282,7 +11350,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11367,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>6359613.00</t>
+          <t>6641206.00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -11324,7 +11392,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11336,12 +11404,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>203.00</t>
+          <t>206.00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>3773159.00</t>
+          <t>3925905.00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -11366,7 +11434,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11378,12 +11446,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>68.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>956494.00</t>
+          <t>1028118.00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -11408,7 +11476,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11450,7 +11518,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11462,12 +11530,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>3236570.00</t>
+          <t>3284331.00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -11492,7 +11560,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11504,12 +11572,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>501243.00</t>
+          <t>505243.00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -11534,7 +11602,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11576,7 +11644,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11686,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11630,12 +11698,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>271.00</t>
+          <t>290.00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>10608185.00</t>
+          <t>12162154.00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -11660,7 +11728,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11702,7 +11770,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11812,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11756,12 +11824,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>415.00</t>
+          <t>471.00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>7887125.00</t>
+          <t>8911905.00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -11786,7 +11854,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11798,12 +11866,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>1041.00</t>
+          <t>1122.00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>27908238.00</t>
+          <t>29192894.00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -11828,7 +11896,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11840,12 +11908,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>136.00</t>
+          <t>144.00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>7753887.00</t>
+          <t>7968031.00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -11870,7 +11938,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11882,12 +11950,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>668.00</t>
+          <t>735.00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>7900120.00</t>
+          <t>8882991.00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -11912,7 +11980,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11924,12 +11992,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>3180908.00</t>
+          <t>3167617.00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -11954,7 +12022,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -11966,12 +12034,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>189.00</t>
+          <t>201.00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>5882169.00</t>
+          <t>6455206.00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -11996,7 +12064,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12008,12 +12076,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>309.00</t>
+          <t>340.00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2946439.00</t>
+          <t>3306061.00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -12038,7 +12106,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12050,12 +12118,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>406.00</t>
+          <t>427.00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9124496.00</t>
+          <t>13712094.00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -12080,7 +12148,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12092,12 +12160,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>316.00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>6966553.00</t>
+          <t>7281364.00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -12122,7 +12190,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12139,7 +12207,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>1054623.00</t>
+          <t>1053976.00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -12164,7 +12232,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12176,12 +12244,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>251.00</t>
+          <t>263.00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>6002903.00</t>
+          <t>6121122.00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -12206,7 +12274,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12218,12 +12286,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2530703.00</t>
+          <t>2641457.00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -12248,7 +12316,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12260,12 +12328,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>158.00</t>
+          <t>171.00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>913742.00</t>
+          <t>1082450.00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -12290,7 +12358,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12302,12 +12370,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>316536.00</t>
+          <t>316793.00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -12332,7 +12400,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
@@ -12344,12 +12412,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>12250.00</t>
+          <t>12539.00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>273912035.00</t>
+          <t>268228245.00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
@@ -12366,7 +12434,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-07-09</t>
         </is>
       </c>
     </row>
